--- a/file-creation/TeacherSchedule.xlsx
+++ b/file-creation/TeacherSchedule.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Day</t>
   </si>
@@ -56,31 +56,31 @@
     <t>Понеділок</t>
   </si>
   <si>
-    <t>Системний аналіз (online), Room: , Group: 3-КН-(т)-23, 3-КІ-22, 3-КН-22</t>
-  </si>
-  <si>
-    <t>Компютерні мережі (online), Room: , Group: 3-IПЗ-22, 3-IПЗ-(т)-23, 3-КН-22, 3-КІ-22, 3-КН-(т)-23</t>
-  </si>
-  <si>
-    <t>Філософія (online), Room: , Group: 3-IПЗ-22, 3-КІ-22, 3-IПЗ-(т)-23, 3-КН-22, 3-КН-(т)-23</t>
-  </si>
-  <si>
-    <t>Правознавство (online), Room: , Group: 3-КН-22, 3-КІ-22, 3-IПЗ-22</t>
+    <t>Системний аналіз (online), Room: , Group: 3-КН-22, 3-КІ-22, 3-КН-(т)-23</t>
+  </si>
+  <si>
+    <t>Компютернімережі (online), Room: , Group: 3-КН-(т)-23, 3-КІ-22, 3-КН-22, 3-IПЗ-(т)-23, 3-IПЗ-22</t>
+  </si>
+  <si>
+    <t>Філософія (online), Room: , Group: 3-IПЗ-(т)-23, 3-КН-22, 3-КІ-22, 3-КН-(т)-23, 3-IПЗ-22</t>
+  </si>
+  <si>
+    <t>Правознавство (online), Room: , Group: 3-КН-22, 3-IПЗ-22, 3-КІ-22</t>
   </si>
   <si>
     <t>Вівторок</t>
   </si>
   <si>
-    <t>філософія пр. (offline), Room: 405, Group: 3-IПЗ-22, 3-КІ-22, 3-IПЗ-(т)-23</t>
-  </si>
-  <si>
-    <t>Компютерні системи (online), Room: , Group: 3-КІ-22</t>
+    <t>філософія пр. (offline), Room: 405, Group: 3-IПЗ-(т)-23, 3-КІ-22, 3-IПЗ-22</t>
+  </si>
+  <si>
+    <t>Компютернісистеми (online), Room: , Group: 3-КІ-22</t>
   </si>
   <si>
     <t>об'єктно-орієнтоване програмування лаб. (offline), Room: 610, Group: 3-IПЗ-(т)-23, 3-IПЗ-22</t>
   </si>
   <si>
-    <t>філософія пр. (offline), Room: 405, Group: 3-КН-(т)-23, 3-КН-22</t>
+    <t>філософія пр. (offline), Room: 405, Group: 3-КН-22, 3-КН-(т)-23</t>
   </si>
   <si>
     <t>об'єктно-орієнтоване програмування лаб. (offline), Room: 610, Group: 3-КН-(т)-23, 3-КН-22</t>
@@ -89,10 +89,10 @@
     <t>Середа</t>
   </si>
   <si>
-    <t>компютерні системи лаб. (offline), Room: 609, Group: 3-КІ-22</t>
-  </si>
-  <si>
-    <t>компютерні мережі лаб. (offline), Room: 609, Group: 3-КІ-22</t>
+    <t>компютернісистемилаб. (offline), Room: 609, Group: 3-КІ-22</t>
+  </si>
+  <si>
+    <t>компютернімережілаб. (offline), Room: 609, Group: 3-КІ-22</t>
   </si>
   <si>
     <t>системне ПЗ лаб. (offline), Room: 609, Group: 3-КІ-22</t>
@@ -101,22 +101,22 @@
     <t>системний аналіз лаб. (offline), Room: 606, Group: 3-КІ-22</t>
   </si>
   <si>
-    <t>компютерні мережі лаб. (offline), Room: 609, Group: 3-КН-22, 3-КН-(т)-23</t>
-  </si>
-  <si>
-    <t>компютерні мережі лаб. (offline), Room: 609, Group: 3-IПЗ-(т)-23, 3-IПЗ-22</t>
+    <t>компютернімережілаб. (offline), Room: 609, Group: 3-КН-(т)-23, 3-КН-22</t>
+  </si>
+  <si>
+    <t>компютернімережілаб. (offline), Room: 609, Group: 3-IПЗ-22, 3-IПЗ-(т)-23</t>
   </si>
   <si>
     <t>системне ПЗ лаб. (offline), Room: 609, Group: 3-IПЗ-22, 3-IПЗ-(т)-23</t>
   </si>
   <si>
-    <t>вебдизайн лаб. (offline), Room: 610, Group: 3-КН-22, 3-КН-(т)-23</t>
+    <t>вебдизайн лаб. (offline), Room: 610, Group: 3-КН-(т)-23, 3-КН-22</t>
   </si>
   <si>
     <t>системний аналіз лаб. (offline), Room: 606, Group: 3-КН-22, 3-КН-(т)-23</t>
   </si>
   <si>
-    <t>вебдизайн лаб. (offline), Room: 610, Group: 3-IПЗ-(т)-23, 3-IПЗ-22</t>
+    <t>вебдизайн лаб. (offline), Room: 610, Group: 3-IПЗ-22, 3-IПЗ-(т)-23</t>
   </si>
   <si>
     <t>Четвер</t>
@@ -128,28 +128,25 @@
     <t>право пр. (offline), Room: 411, Group: 3-КН-22</t>
   </si>
   <si>
-    <t>Вебдизайн (online), Room: , Group: 3-КН-22, 3-IПЗ-22, 3-IПЗ-(т)-23, 3-КН-(т)-23</t>
-  </si>
-  <si>
-    <t>Об'єктно-орієнтоване програмування (online), Room: , Group: 3-КН-(т)-23, 3-КН-22, 3-IПЗ-(т)-23, 3-IПЗ-22</t>
+    <t>Вебдизайн (online), Room: , Group: 3-КН-(т)-23, 3-IПЗ-22, 3-IПЗ-(т)-23, 3-КН-22</t>
+  </si>
+  <si>
+    <t>Об'єктно-орієнтоване програмування (online), Room: , Group: 3-КН-22, 3-КН-(т)-23, 3-IПЗ-(т)-23, 3-IПЗ-22</t>
   </si>
   <si>
     <t>моделювання систем лаб. (offline), Room: 613, Group: 3-КН-22, 3-КН-(т)-23</t>
   </si>
   <si>
-    <t>право пр. (offline), Room: 411, Group: 3-IПЗ-22, 3-КІ-22</t>
-  </si>
-  <si>
-    <t>моделювання систем лаб. (offline), Room: 613, Group: 3-КН-(т)-23, 3-КН-22</t>
+    <t>право пр. (offline), Room: 411, Group: 3-КІ-22, 3-IПЗ-22</t>
   </si>
   <si>
     <t>Моделювання систем (online), Room: , Group: 3-КН-22, 3-КН-(т)-23</t>
   </si>
   <si>
-    <t>конструювання ПЗ лаб. (offline), Room: 610, Group: 3-IПЗ-22, 3-IПЗ-(т)-23</t>
-  </si>
-  <si>
-    <t>Конструювання ПЗ (online), Room: , Group: 3-IПЗ-22, 3-IПЗ-(т)-23</t>
+    <t>конструювання ПЗ лаб. (offline), Room: 610, Group: 3-IПЗ-(т)-23, 3-IПЗ-22</t>
+  </si>
+  <si>
+    <t>Конструювання ПЗ (online), Room: , Group: 3-IПЗ-(т)-23, 3-IПЗ-22</t>
   </si>
   <si>
     <t>на м. Java лаб. (offline), Room: 606, Group: 3-КІ-22</t>
@@ -158,7 +155,7 @@
     <t>Програм. на м. Java (online), Room: , Group: 3-КІ-22</t>
   </si>
   <si>
-    <t>Системне ПЗ (online), Room: , Group: 3-КІ-22, 3-IПЗ-22, 3-IПЗ-(т)-23</t>
+    <t>Системне ПЗ (online), Room: , Group: 3-IПЗ-(т)-23, 3-КІ-22, 3-IПЗ-22</t>
   </si>
   <si>
     <t>П'ятниця</t>
@@ -260,19 +257,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="2.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="87.484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="55.98046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="79.359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="70.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="40.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="62.89453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="61.02734375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="59.49609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.14453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="54.7578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="76.87109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.54296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="88.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="56.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="78.9765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="71.1640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="40.5625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="63.05859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="61.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="59.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.5" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="55.2734375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="77.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -543,24 +540,24 @@
         <v>4.0</v>
       </c>
       <c r="H50" t="s" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="true">
       <c r="H51" t="s" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="true">
@@ -568,15 +565,15 @@
         <v>5.0</v>
       </c>
       <c r="I52" t="s" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="30.0" customHeight="true">
       <c r="D53" t="s" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="30.0" customHeight="true">
@@ -591,7 +588,7 @@
     </row>
     <row r="58" ht="30.0" customHeight="true">
       <c r="A58" t="s" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="n" s="5">
         <v>1.0</v>
